--- a/Extra sites data.xlsx
+++ b/Extra sites data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Isdsf00d03\LIST_analytics\Lanarkshire\HSCP\Locality Plans\mapping-for-ruth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF1F4B5-1D88-487A-83BC-9C329775A250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F9403F-B331-4E67-89DF-87960468DE91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C5A27E1E-238B-4614-A089-9989BA7E8FC9}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C5A27E1E-238B-4614-A089-9989BA7E8FC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
   <si>
     <t>Airbles Road Centre</t>
   </si>
@@ -195,6 +195,63 @@
   </si>
   <si>
     <t>code</t>
+  </si>
+  <si>
+    <t>Biggart Hospital</t>
+  </si>
+  <si>
+    <t>1 Biggart Road</t>
+  </si>
+  <si>
+    <t>Prestwick</t>
+  </si>
+  <si>
+    <t>KA9 2HQ</t>
+  </si>
+  <si>
+    <t>East Ayrshire Community Hospital</t>
+  </si>
+  <si>
+    <t>Cumnock</t>
+  </si>
+  <si>
+    <t>KA18 1EF</t>
+  </si>
+  <si>
+    <t>Woodland View</t>
+  </si>
+  <si>
+    <t>Kilwinning Road</t>
+  </si>
+  <si>
+    <t>Irvine</t>
+  </si>
+  <si>
+    <t>KA12 8SS</t>
+  </si>
+  <si>
+    <t>Ailsa Hospital</t>
+  </si>
+  <si>
+    <t>Dalmellington Road</t>
+  </si>
+  <si>
+    <t>Ayr</t>
+  </si>
+  <si>
+    <t>Ayrshire Maternity Unit</t>
+  </si>
+  <si>
+    <t>Kilmarnock Road</t>
+  </si>
+  <si>
+    <t>Crosshouse</t>
+  </si>
+  <si>
+    <t>KA2 0BE</t>
+  </si>
+  <si>
+    <t>KA6 6AB</t>
   </si>
 </sst>
 </file>
@@ -320,18 +377,18 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -666,9 +723,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85FCDB6C-154D-4C0B-9C92-5195F91DC5E5}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -897,6 +956,91 @@
         <v>47</v>
       </c>
     </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
